--- a/bookkeeper2.xlsx
+++ b/bookkeeper2.xlsx
@@ -1134,7 +1134,7 @@
         <v>15.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>1020.0</v>
@@ -1175,7 +1175,7 @@
         <v>42.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>2103.0</v>
@@ -1216,7 +1216,7 @@
         <v>9.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>120.0</v>
@@ -1257,7 +1257,7 @@
         <v>12.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>81.0</v>
@@ -1298,7 +1298,7 @@
         <v>27.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>438.0</v>
@@ -1339,7 +1339,7 @@
         <v>15.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
         <v>258.0</v>
@@ -1380,7 +1380,7 @@
         <v>21.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
         <v>255.0</v>
@@ -1421,7 +1421,7 @@
         <v>15.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>105.0</v>
@@ -1462,7 +1462,7 @@
         <v>9.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
         <v>39.0</v>
@@ -1503,7 +1503,7 @@
         <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1544,7 +1544,7 @@
         <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" t="n">
         <v>429.0</v>
@@ -1585,7 +1585,7 @@
         <v>12.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
         <v>93.0</v>
@@ -1626,7 +1626,7 @@
         <v>12.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
         <v>24.0</v>
@@ -1667,7 +1667,7 @@
         <v>27.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n">
         <v>1890.0</v>
@@ -1708,7 +1708,7 @@
         <v>18.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
         <v>2793.0</v>
@@ -1749,7 +1749,7 @@
         <v>6.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" t="n">
         <v>9.0</v>
@@ -1790,7 +1790,7 @@
         <v>15.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
         <v>69.0</v>
@@ -1831,7 +1831,7 @@
         <v>9.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G19" t="n">
         <v>15.0</v>
@@ -1872,7 +1872,7 @@
         <v>24.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G20" t="n">
         <v>129.0</v>
@@ -1913,7 +1913,7 @@
         <v>12.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G21" t="n">
         <v>36.0</v>
@@ -1954,7 +1954,7 @@
         <v>9.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
         <v>150.0</v>
@@ -1995,7 +1995,7 @@
         <v>36.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G23" t="n">
         <v>2745.0</v>
@@ -2036,7 +2036,7 @@
         <v>21.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n">
         <v>270.0</v>
@@ -2077,7 +2077,7 @@
         <v>27.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G25" t="n">
         <v>276.0</v>
@@ -2118,7 +2118,7 @@
         <v>18.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n">
         <v>138.0</v>
@@ -2159,7 +2159,7 @@
         <v>12.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" t="n">
         <v>27.0</v>
@@ -2200,7 +2200,7 @@
         <v>12.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n">
         <v>132.0</v>
@@ -2241,7 +2241,7 @@
         <v>12.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G29" t="n">
         <v>69.0</v>
@@ -2282,7 +2282,7 @@
         <v>18.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" t="n">
         <v>381.0</v>
@@ -2323,7 +2323,7 @@
         <v>3.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>234.0</v>
@@ -2364,7 +2364,7 @@
         <v>6.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" t="n">
         <v>3.0</v>
@@ -2405,7 +2405,7 @@
         <v>6.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" t="n">
         <v>3.0</v>
@@ -2446,7 +2446,7 @@
         <v>6.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
         <v>318.0</v>
@@ -2487,7 +2487,7 @@
         <v>12.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
         <v>672.0</v>
@@ -2528,7 +2528,7 @@
         <v>12.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
         <v>1191.0</v>
@@ -2569,7 +2569,7 @@
         <v>6.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>765.0</v>
@@ -2610,7 +2610,7 @@
         <v>3.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>579.0</v>
@@ -2651,7 +2651,7 @@
         <v>3.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>1542.0</v>
@@ -2692,7 +2692,7 @@
         <v>3.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>612.0</v>
@@ -2733,7 +2733,7 @@
         <v>3.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>432.0</v>
@@ -2774,7 +2774,7 @@
         <v>3.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
         <v>294.0</v>
@@ -2815,7 +2815,7 @@
         <v>21.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>75.0</v>
@@ -2856,7 +2856,7 @@
         <v>12.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
         <v>261.0</v>
@@ -2897,7 +2897,7 @@
         <v>33.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G45" t="n">
         <v>840.0</v>
@@ -2938,7 +2938,7 @@
         <v>9.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G46" t="n">
         <v>246.0</v>
@@ -2979,7 +2979,7 @@
         <v>24.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" t="n">
         <v>105.0</v>
@@ -3020,7 +3020,7 @@
         <v>27.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G48" t="n">
         <v>330.0</v>
@@ -3061,7 +3061,7 @@
         <v>3.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -3102,7 +3102,7 @@
         <v>9.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
         <v>33.0</v>
@@ -3143,7 +3143,7 @@
         <v>9.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="n">
         <v>33.0</v>
@@ -3184,7 +3184,7 @@
         <v>18.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G52" t="n">
         <v>213.0</v>
@@ -3225,7 +3225,7 @@
         <v>18.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G53" t="n">
         <v>699.0</v>
@@ -3266,7 +3266,7 @@
         <v>9.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G54" t="n">
         <v>15.0</v>
@@ -3307,7 +3307,7 @@
         <v>6.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" t="n">
         <v>15.0</v>
@@ -3348,7 +3348,7 @@
         <v>6.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G56" t="n">
         <v>12.0</v>
@@ -3389,7 +3389,7 @@
         <v>9.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="n">
         <v>33.0</v>
@@ -3430,7 +3430,7 @@
         <v>9.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G58" t="n">
         <v>12.0</v>
@@ -3471,7 +3471,7 @@
         <v>3.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
         <v>282.0</v>
@@ -3512,7 +3512,7 @@
         <v>3.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
         <v>126.0</v>
@@ -3553,7 +3553,7 @@
         <v>9.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>168.0</v>
@@ -3594,7 +3594,7 @@
         <v>6.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G62" t="n">
         <v>201.0</v>
@@ -3635,7 +3635,7 @@
         <v>6.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G63" t="n">
         <v>771.0</v>
@@ -3676,7 +3676,7 @@
         <v>9.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" t="n">
         <v>417.0</v>
@@ -3717,7 +3717,7 @@
         <v>12.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" t="n">
         <v>450.0</v>
@@ -3758,7 +3758,7 @@
         <v>9.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G66" t="n">
         <v>543.0</v>
@@ -3799,7 +3799,7 @@
         <v>6.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" t="n">
         <v>141.0</v>
@@ -3840,7 +3840,7 @@
         <v>15.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G68" t="n">
         <v>411.0</v>
@@ -3881,7 +3881,7 @@
         <v>9.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="n">
         <v>456.0</v>
@@ -3922,7 +3922,7 @@
         <v>6.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="n">
         <v>177.0</v>
@@ -3963,7 +3963,7 @@
         <v>6.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G71" t="n">
         <v>456.0</v>
@@ -4004,7 +4004,7 @@
         <v>6.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G72" t="n">
         <v>234.0</v>
@@ -4045,7 +4045,7 @@
         <v>3.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
         <v>111.0</v>
@@ -4086,7 +4086,7 @@
         <v>6.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" t="n">
         <v>120.0</v>
@@ -4127,7 +4127,7 @@
         <v>6.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" t="n">
         <v>120.0</v>
@@ -4168,7 +4168,7 @@
         <v>12.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G76" t="n">
         <v>321.0</v>
@@ -4209,7 +4209,7 @@
         <v>12.0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G77" t="n">
         <v>234.0</v>
@@ -4250,7 +4250,7 @@
         <v>9.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
         <v>273.0</v>
@@ -4291,7 +4291,7 @@
         <v>12.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="n">
         <v>369.0</v>
@@ -4332,7 +4332,7 @@
         <v>18.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G80" t="n">
         <v>1242.0</v>
@@ -4373,7 +4373,7 @@
         <v>12.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G81" t="n">
         <v>279.0</v>
@@ -4414,7 +4414,7 @@
         <v>3.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
         <v>216.0</v>
@@ -4455,7 +4455,7 @@
         <v>9.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G83" t="n">
         <v>189.0</v>
@@ -4496,7 +4496,7 @@
         <v>12.0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G84" t="n">
         <v>390.0</v>
@@ -4537,7 +4537,7 @@
         <v>3.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>42.0</v>
@@ -4578,7 +4578,7 @@
         <v>15.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" t="n">
         <v>729.0</v>
@@ -4619,7 +4619,7 @@
         <v>12.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G87" t="n">
         <v>1935.0</v>
@@ -4660,7 +4660,7 @@
         <v>15.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G88" t="n">
         <v>1170.0</v>
@@ -4701,7 +4701,7 @@
         <v>12.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G89" t="n">
         <v>324.0</v>
@@ -4742,7 +4742,7 @@
         <v>3.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
         <v>123.0</v>
@@ -4783,7 +4783,7 @@
         <v>6.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G91" t="n">
         <v>237.0</v>
@@ -4824,7 +4824,7 @@
         <v>9.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G92" t="n">
         <v>165.0</v>
@@ -4865,7 +4865,7 @@
         <v>6.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G93" t="n">
         <v>153.0</v>
@@ -4906,7 +4906,7 @@
         <v>12.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G94" t="n">
         <v>609.0</v>
@@ -4947,7 +4947,7 @@
         <v>3.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>147.0</v>
@@ -4988,7 +4988,7 @@
         <v>3.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
         <v>150.0</v>
@@ -5029,7 +5029,7 @@
         <v>6.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G97" t="n">
         <v>300.0</v>
@@ -5070,7 +5070,7 @@
         <v>3.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G98" t="n">
         <v>414.0</v>
@@ -5111,7 +5111,7 @@
         <v>3.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
         <v>129.0</v>
@@ -5152,7 +5152,7 @@
         <v>3.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
         <v>126.0</v>
@@ -5193,7 +5193,7 @@
         <v>3.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>168.0</v>
@@ -5234,7 +5234,7 @@
         <v>6.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G102" t="n">
         <v>489.0</v>
@@ -5275,7 +5275,7 @@
         <v>6.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" t="n">
         <v>36666.0</v>
@@ -5316,7 +5316,7 @@
         <v>6.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G104" t="n">
         <v>465.0</v>
@@ -5357,7 +5357,7 @@
         <v>3.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
         <v>129.0</v>
@@ -5398,7 +5398,7 @@
         <v>6.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G106" t="n">
         <v>126.0</v>
@@ -5439,7 +5439,7 @@
         <v>9.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G107" t="n">
         <v>465.0</v>
@@ -5480,7 +5480,7 @@
         <v>15.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G108" t="n">
         <v>444.0</v>
@@ -5521,7 +5521,7 @@
         <v>12.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G109" t="n">
         <v>378.0</v>
@@ -5562,7 +5562,7 @@
         <v>9.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G110" t="n">
         <v>453.0</v>
@@ -5603,7 +5603,7 @@
         <v>3.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
         <v>135.0</v>
@@ -5644,7 +5644,7 @@
         <v>6.0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G112" t="n">
         <v>870.0</v>
@@ -5685,7 +5685,7 @@
         <v>6.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G113" t="n">
         <v>105.0</v>
@@ -5726,7 +5726,7 @@
         <v>3.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G114" t="n">
         <v>333.0</v>
@@ -5767,7 +5767,7 @@
         <v>6.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G115" t="n">
         <v>108.0</v>
@@ -5808,7 +5808,7 @@
         <v>3.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
         <v>243.0</v>
@@ -5849,7 +5849,7 @@
         <v>3.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
         <v>81.0</v>
@@ -5890,7 +5890,7 @@
         <v>3.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
         <v>84.0</v>
@@ -5931,7 +5931,7 @@
         <v>6.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G119" t="n">
         <v>90.0</v>
@@ -5972,7 +5972,7 @@
         <v>12.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G120" t="n">
         <v>1800.0</v>
@@ -6013,7 +6013,7 @@
         <v>6.0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G121" t="n">
         <v>240.0</v>
@@ -6054,7 +6054,7 @@
         <v>6.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G122" t="n">
         <v>90.0</v>
@@ -6095,7 +6095,7 @@
         <v>6.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G123" t="n">
         <v>195.0</v>
@@ -6136,7 +6136,7 @@
         <v>6.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G124" t="n">
         <v>120.0</v>
@@ -6177,7 +6177,7 @@
         <v>6.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" t="n">
         <v>237.0</v>
@@ -6218,7 +6218,7 @@
         <v>9.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G126" t="n">
         <v>495.0</v>
@@ -6259,7 +6259,7 @@
         <v>6.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G127" t="n">
         <v>219.0</v>
@@ -6300,7 +6300,7 @@
         <v>18.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G128" t="n">
         <v>1200.0</v>
@@ -6341,7 +6341,7 @@
         <v>6.0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G129" t="n">
         <v>234.0</v>
@@ -6382,7 +6382,7 @@
         <v>9.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" t="n">
         <v>489.0</v>
@@ -6423,7 +6423,7 @@
         <v>9.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G131" t="n">
         <v>2658.0</v>
@@ -6464,7 +6464,7 @@
         <v>6.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G132" t="n">
         <v>228.0</v>
@@ -6505,7 +6505,7 @@
         <v>9.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G133" t="n">
         <v>291.0</v>
@@ -6546,7 +6546,7 @@
         <v>3.0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" t="n">
         <v>66.0</v>
@@ -6587,7 +6587,7 @@
         <v>9.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G135" t="n">
         <v>1317.0</v>
@@ -6628,7 +6628,7 @@
         <v>3.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>186.0</v>
@@ -6669,7 +6669,7 @@
         <v>6.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G137" t="n">
         <v>288.0</v>
@@ -6710,7 +6710,7 @@
         <v>6.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G138" t="n">
         <v>84.0</v>
@@ -6751,7 +6751,7 @@
         <v>6.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G139" t="n">
         <v>177.0</v>
@@ -6792,7 +6792,7 @@
         <v>6.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G140" t="n">
         <v>237.0</v>
@@ -6833,7 +6833,7 @@
         <v>9.0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G141" t="n">
         <v>2226.0</v>
@@ -6874,7 +6874,7 @@
         <v>6.0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G142" t="n">
         <v>201.0</v>
@@ -6915,7 +6915,7 @@
         <v>3.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
         <v>111.0</v>
@@ -6956,7 +6956,7 @@
         <v>6.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G144" t="n">
         <v>195.0</v>
@@ -6997,7 +6997,7 @@
         <v>6.0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G145" t="n">
         <v>381.0</v>
@@ -7038,7 +7038,7 @@
         <v>12.0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G146" t="n">
         <v>501.0</v>
@@ -7079,7 +7079,7 @@
         <v>6.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" t="n">
         <v>123.0</v>
@@ -7120,7 +7120,7 @@
         <v>6.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G148" t="n">
         <v>180.0</v>
@@ -7161,7 +7161,7 @@
         <v>3.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" t="n">
         <v>186.0</v>
@@ -7202,7 +7202,7 @@
         <v>12.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G150" t="n">
         <v>426.0</v>
@@ -7243,7 +7243,7 @@
         <v>6.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G151" t="n">
         <v>228.0</v>
@@ -7284,7 +7284,7 @@
         <v>9.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G152" t="n">
         <v>258.0</v>
@@ -7325,7 +7325,7 @@
         <v>3.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
         <v>222.0</v>
@@ -7366,7 +7366,7 @@
         <v>6.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G154" t="n">
         <v>150.0</v>
@@ -7407,7 +7407,7 @@
         <v>6.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G155" t="n">
         <v>183.0</v>
@@ -7448,7 +7448,7 @@
         <v>9.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G156" t="n">
         <v>228.0</v>
@@ -7489,7 +7489,7 @@
         <v>12.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G157" t="n">
         <v>606.0</v>
@@ -7530,7 +7530,7 @@
         <v>3.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G158" t="n">
         <v>159.0</v>
@@ -7571,7 +7571,7 @@
         <v>12.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G159" t="n">
         <v>1416.0</v>
@@ -7612,7 +7612,7 @@
         <v>3.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
         <v>117.0</v>
@@ -7653,7 +7653,7 @@
         <v>6.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G161" t="n">
         <v>246.0</v>
@@ -7694,7 +7694,7 @@
         <v>6.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G162" t="n">
         <v>195.0</v>
@@ -7735,7 +7735,7 @@
         <v>6.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G163" t="n">
         <v>96.0</v>
@@ -7776,7 +7776,7 @@
         <v>6.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G164" t="n">
         <v>183.0</v>
@@ -7817,7 +7817,7 @@
         <v>6.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G165" t="n">
         <v>333.0</v>
@@ -7858,7 +7858,7 @@
         <v>3.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G166" t="n">
         <v>96.0</v>
@@ -7899,7 +7899,7 @@
         <v>9.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G167" t="n">
         <v>837.0</v>
@@ -7940,7 +7940,7 @@
         <v>12.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G168" t="n">
         <v>624.0</v>
@@ -7981,7 +7981,7 @@
         <v>6.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G169" t="n">
         <v>243.0</v>
@@ -8022,7 +8022,7 @@
         <v>3.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G170" t="n">
         <v>84.0</v>
@@ -8063,7 +8063,7 @@
         <v>6.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G171" t="n">
         <v>162.0</v>
@@ -8104,7 +8104,7 @@
         <v>9.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G172" t="n">
         <v>1518.0</v>
@@ -8145,7 +8145,7 @@
         <v>6.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G173" t="n">
         <v>402.0</v>
@@ -8186,7 +8186,7 @@
         <v>3.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="n">
         <v>105.0</v>
@@ -8227,7 +8227,7 @@
         <v>6.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G175" t="n">
         <v>297.0</v>
@@ -8268,7 +8268,7 @@
         <v>9.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G176" t="n">
         <v>282.0</v>
@@ -8309,7 +8309,7 @@
         <v>9.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="n">
         <v>681.0</v>
@@ -8350,7 +8350,7 @@
         <v>6.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G178" t="n">
         <v>852.0</v>
@@ -8391,7 +8391,7 @@
         <v>15.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G179" t="n">
         <v>1602.0</v>
@@ -8473,7 +8473,7 @@
         <v>6.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G181" t="n">
         <v>915.0</v>
@@ -8514,7 +8514,7 @@
         <v>60.0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G182" t="n">
         <v>1740.0</v>
@@ -8555,7 +8555,7 @@
         <v>6.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G183" t="n">
         <v>159.0</v>
@@ -8596,7 +8596,7 @@
         <v>6.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G184" t="n">
         <v>189.0</v>
@@ -8637,7 +8637,7 @@
         <v>6.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G185" t="n">
         <v>99.0</v>
@@ -8719,7 +8719,7 @@
         <v>6.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G187" t="n">
         <v>606.0</v>
@@ -8760,7 +8760,7 @@
         <v>36.0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G188" t="n">
         <v>1125.0</v>
@@ -8801,7 +8801,7 @@
         <v>3.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G189" t="n">
         <v>120.0</v>
@@ -8842,7 +8842,7 @@
         <v>12.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G190" t="n">
         <v>390.0</v>
@@ -8883,7 +8883,7 @@
         <v>12.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G191" t="n">
         <v>1203.0</v>
@@ -8924,7 +8924,7 @@
         <v>21.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G192" t="n">
         <v>1635.0</v>
@@ -8965,7 +8965,7 @@
         <v>3.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G193" t="n">
         <v>96.0</v>
@@ -9006,7 +9006,7 @@
         <v>6.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G194" t="n">
         <v>222.0</v>
@@ -9047,7 +9047,7 @@
         <v>12.0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G195" t="n">
         <v>633.0</v>
@@ -9088,7 +9088,7 @@
         <v>9.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G196" t="n">
         <v>1767.0</v>
@@ -9129,7 +9129,7 @@
         <v>9.0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G197" t="n">
         <v>483.0</v>
@@ -9170,7 +9170,7 @@
         <v>24.0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G198" t="n">
         <v>384.0</v>
@@ -9211,7 +9211,7 @@
         <v>6.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G199" t="n">
         <v>240.0</v>
@@ -9252,7 +9252,7 @@
         <v>27.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G200" t="n">
         <v>2712.0</v>
@@ -9293,7 +9293,7 @@
         <v>3.0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G201" t="n">
         <v>180.0</v>
@@ -9334,7 +9334,7 @@
         <v>15.0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G202" t="n">
         <v>222.0</v>
@@ -9375,7 +9375,7 @@
         <v>6.0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G203" t="n">
         <v>354.0</v>
@@ -9416,7 +9416,7 @@
         <v>6.0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G204" t="n">
         <v>165.0</v>
@@ -9457,7 +9457,7 @@
         <v>6.0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G205" t="n">
         <v>27.0</v>
@@ -9498,7 +9498,7 @@
         <v>3.0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G206" t="n">
         <v>273.0</v>
@@ -9580,7 +9580,7 @@
         <v>3.0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G208" t="n">
         <v>36.0</v>
@@ -9621,7 +9621,7 @@
         <v>3.0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G209" t="n">
         <v>33.0</v>
@@ -9662,7 +9662,7 @@
         <v>15.0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G210" t="n">
         <v>75.0</v>
@@ -9703,7 +9703,7 @@
         <v>24.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G211" t="n">
         <v>642.0</v>
@@ -9744,7 +9744,7 @@
         <v>18.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G212" t="n">
         <v>333.0</v>
@@ -9785,7 +9785,7 @@
         <v>3.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G213" t="n">
         <v>27.0</v>
@@ -9826,7 +9826,7 @@
         <v>9.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G214" t="n">
         <v>24.0</v>
@@ -9867,7 +9867,7 @@
         <v>3.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
         <v>39.0</v>
@@ -9908,7 +9908,7 @@
         <v>6.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G216" t="n">
         <v>78.0</v>
@@ -10031,7 +10031,7 @@
         <v>27.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G219" t="n">
         <v>663.0</v>
@@ -10072,7 +10072,7 @@
         <v>15.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G220" t="n">
         <v>210.0</v>
@@ -10113,7 +10113,7 @@
         <v>3.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G221" t="n">
         <v>15.0</v>
@@ -10154,7 +10154,7 @@
         <v>18.0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G222" t="n">
         <v>90.0</v>
@@ -10195,7 +10195,7 @@
         <v>3.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G223" t="n">
         <v>78.0</v>
@@ -10236,7 +10236,7 @@
         <v>6.0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G224" t="n">
         <v>15.0</v>
@@ -10277,7 +10277,7 @@
         <v>9.0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G225" t="n">
         <v>51.0</v>
@@ -10318,7 +10318,7 @@
         <v>15.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G226" t="n">
         <v>177.0</v>
@@ -10359,7 +10359,7 @@
         <v>3.0</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G227" t="n">
         <v>6.0</v>
@@ -10400,7 +10400,7 @@
         <v>3.0</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G228" t="n">
         <v>75.0</v>
@@ -10482,7 +10482,7 @@
         <v>6.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G230" t="n">
         <v>30.0</v>
@@ -10523,7 +10523,7 @@
         <v>9.0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G231" t="n">
         <v>183.0</v>
@@ -10564,7 +10564,7 @@
         <v>18.0</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G232" t="n">
         <v>546.0</v>
@@ -10605,7 +10605,7 @@
         <v>3.0</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G233" t="n">
         <v>81.0</v>
@@ -10646,7 +10646,7 @@
         <v>6.0</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G234" t="n">
         <v>267.0</v>
@@ -10687,7 +10687,7 @@
         <v>12.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G235" t="n">
         <v>108.0</v>
@@ -10728,7 +10728,7 @@
         <v>6.0</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G236" t="n">
         <v>36.0</v>
@@ -10769,7 +10769,7 @@
         <v>12.0</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G237" t="n">
         <v>87.0</v>
@@ -10810,7 +10810,7 @@
         <v>3.0</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G238" t="n">
         <v>15.0</v>
@@ -10851,7 +10851,7 @@
         <v>3.0</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G239" t="n">
         <v>15.0</v>
@@ -10892,7 +10892,7 @@
         <v>3.0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G240" t="n">
         <v>3.0</v>
@@ -10933,7 +10933,7 @@
         <v>3.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G241" t="n">
         <v>396.0</v>
@@ -10974,7 +10974,7 @@
         <v>3.0</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G242" t="n">
         <v>708.0</v>
@@ -11015,7 +11015,7 @@
         <v>9.0</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G243" t="n">
         <v>147.0</v>
@@ -11056,7 +11056,7 @@
         <v>9.0</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G244" t="n">
         <v>60.0</v>
@@ -11097,7 +11097,7 @@
         <v>27.0</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G245" t="n">
         <v>459.0</v>
@@ -11138,7 +11138,7 @@
         <v>3.0</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G246" t="n">
         <v>270.0</v>
@@ -11179,7 +11179,7 @@
         <v>3.0</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G247" t="n">
         <v>174.0</v>
@@ -11261,7 +11261,7 @@
         <v>12.0</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G249" t="n">
         <v>27.0</v>
@@ -11302,7 +11302,7 @@
         <v>30.0</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G250" t="n">
         <v>579.0</v>
@@ -11466,7 +11466,7 @@
         <v>3.0</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G254" t="n">
         <v>6.0</v>
@@ -11507,7 +11507,7 @@
         <v>6.0</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G255" t="n">
         <v>1998.0</v>
@@ -11548,7 +11548,7 @@
         <v>3.0</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G256" t="n">
         <v>165.0</v>
@@ -11589,7 +11589,7 @@
         <v>15.0</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G257" t="n">
         <v>327.0</v>
@@ -11999,7 +11999,7 @@
         <v>9.0</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G267" t="n">
         <v>258.0</v>
@@ -12040,7 +12040,7 @@
         <v>3.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G268" t="n">
         <v>9.0</v>
@@ -12081,7 +12081,7 @@
         <v>3.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G269" t="n">
         <v>12.0</v>
@@ -12122,7 +12122,7 @@
         <v>3.0</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G270" t="n">
         <v>45.0</v>
@@ -12204,7 +12204,7 @@
         <v>3.0</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G272" t="n">
         <v>177.0</v>
@@ -12245,7 +12245,7 @@
         <v>3.0</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G273" t="n">
         <v>39.0</v>
@@ -12327,7 +12327,7 @@
         <v>3.0</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G275" t="n">
         <v>27.0</v>
@@ -12409,7 +12409,7 @@
         <v>3.0</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G277" t="n">
         <v>108.0</v>
@@ -12696,7 +12696,7 @@
         <v>3.0</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G284" t="n">
         <v>42.0</v>
@@ -12737,7 +12737,7 @@
         <v>3.0</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G285" t="n">
         <v>126.0</v>
@@ -12901,7 +12901,7 @@
         <v>3.0</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G289" t="n">
         <v>21.0</v>
@@ -12942,7 +12942,7 @@
         <v>3.0</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G290" t="n">
         <v>15.0</v>
@@ -12983,7 +12983,7 @@
         <v>3.0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G291" t="n">
         <v>36.0</v>
@@ -13024,7 +13024,7 @@
         <v>12.0</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G292" t="n">
         <v>360.0</v>
@@ -13065,7 +13065,7 @@
         <v>3.0</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G293" t="n">
         <v>3.0</v>
@@ -13106,7 +13106,7 @@
         <v>3.0</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G294" t="n">
         <v>15.0</v>
@@ -13229,7 +13229,7 @@
         <v>3.0</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G297" t="n">
         <v>27.0</v>
@@ -13475,7 +13475,7 @@
         <v>3.0</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G303" t="n">
         <v>15.0</v>
@@ -13598,7 +13598,7 @@
         <v>3.0</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G306" t="n">
         <v>9.0</v>
@@ -13680,7 +13680,7 @@
         <v>3.0</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G308" t="n">
         <v>19512.0</v>
@@ -13762,7 +13762,7 @@
         <v>3.0</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G310" t="n">
         <v>3.0</v>
@@ -13844,7 +13844,7 @@
         <v>6.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G312" t="n">
         <v>1284.0</v>
@@ -13885,7 +13885,7 @@
         <v>6.0</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G313" t="n">
         <v>3171.0</v>
@@ -13926,7 +13926,7 @@
         <v>3.0</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G314" t="n">
         <v>276.0</v>
@@ -13967,7 +13967,7 @@
         <v>6.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G315" t="n">
         <v>1071.0</v>
@@ -14008,7 +14008,7 @@
         <v>9.0</v>
       </c>
       <c r="F316" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G316" t="n">
         <v>1221.0</v>
@@ -14254,7 +14254,7 @@
         <v>6.0</v>
       </c>
       <c r="F322" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G322" t="n">
         <v>36.0</v>
@@ -14295,7 +14295,7 @@
         <v>3.0</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G323" t="n">
         <v>3.0</v>
@@ -14418,7 +14418,7 @@
         <v>3.0</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G326" t="n">
         <v>12.0</v>
@@ -14541,7 +14541,7 @@
         <v>6.0</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G329" t="n">
         <v>21.0</v>
@@ -14582,7 +14582,7 @@
         <v>6.0</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G330" t="n">
         <v>33.0</v>
@@ -14623,7 +14623,7 @@
         <v>3.0</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G331" t="n">
         <v>9.0</v>
@@ -14705,7 +14705,7 @@
         <v>3.0</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G333" t="n">
         <v>24.0</v>
@@ -14787,7 +14787,7 @@
         <v>6.0</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G335" t="n">
         <v>156.0</v>
@@ -14828,7 +14828,7 @@
         <v>3.0</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G336" t="n">
         <v>93.0</v>
@@ -14869,7 +14869,7 @@
         <v>3.0</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G337" t="n">
         <v>27.0</v>
@@ -14910,7 +14910,7 @@
         <v>3.0</v>
       </c>
       <c r="F338" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G338" t="n">
         <v>42.0</v>
@@ -14951,7 +14951,7 @@
         <v>3.0</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G339" t="n">
         <v>30.0</v>
@@ -14992,7 +14992,7 @@
         <v>3.0</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G340" t="n">
         <v>111.0</v>
@@ -15033,7 +15033,7 @@
         <v>3.0</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G341" t="n">
         <v>81.0</v>
@@ -15074,7 +15074,7 @@
         <v>3.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G342" t="n">
         <v>144.0</v>
@@ -15115,7 +15115,7 @@
         <v>9.0</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G343" t="n">
         <v>237.0</v>
@@ -15156,7 +15156,7 @@
         <v>3.0</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G344" t="n">
         <v>231.0</v>
@@ -15197,7 +15197,7 @@
         <v>3.0</v>
       </c>
       <c r="F345" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G345" t="n">
         <v>189.0</v>
@@ -15279,7 +15279,7 @@
         <v>6.0</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G347" t="n">
         <v>579.0</v>
@@ -15320,7 +15320,7 @@
         <v>3.0</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G348" t="n">
         <v>3.0</v>
@@ -15361,7 +15361,7 @@
         <v>9.0</v>
       </c>
       <c r="F349" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G349" t="n">
         <v>621.0</v>
@@ -15525,7 +15525,7 @@
         <v>6.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G353" t="n">
         <v>186.0</v>
@@ -15607,7 +15607,7 @@
         <v>3.0</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G355" t="n">
         <v>9.0</v>
@@ -15771,7 +15771,7 @@
         <v>9.0</v>
       </c>
       <c r="F359" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G359" t="n">
         <v>129.0</v>
@@ -15812,7 +15812,7 @@
         <v>3.0</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G360" t="n">
         <v>192.0</v>
@@ -15853,7 +15853,7 @@
         <v>3.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G361" t="n">
         <v>135.0</v>
@@ -16058,7 +16058,7 @@
         <v>6.0</v>
       </c>
       <c r="F366" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G366" t="n">
         <v>63.0</v>
@@ -16099,7 +16099,7 @@
         <v>3.0</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G367" t="n">
         <v>6.0</v>
@@ -16222,7 +16222,7 @@
         <v>3.0</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G370" t="n">
         <v>12.0</v>
@@ -16263,7 +16263,7 @@
         <v>3.0</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G371" t="n">
         <v>3.0</v>
@@ -16468,7 +16468,7 @@
         <v>3.0</v>
       </c>
       <c r="F376" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G376" t="n">
         <v>54.0</v>
@@ -16509,7 +16509,7 @@
         <v>9.0</v>
       </c>
       <c r="F377" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G377" t="n">
         <v>759.0</v>
@@ -16591,7 +16591,7 @@
         <v>12.0</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G379" t="n">
         <v>555.0</v>
@@ -16714,7 +16714,7 @@
         <v>3.0</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G382" t="n">
         <v>72.0</v>
@@ -16837,7 +16837,7 @@
         <v>3.0</v>
       </c>
       <c r="F385" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G385" t="n">
         <v>12.0</v>
@@ -16878,7 +16878,7 @@
         <v>3.0</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G386" t="n">
         <v>3.0</v>
@@ -16960,7 +16960,7 @@
         <v>3.0</v>
       </c>
       <c r="F388" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G388" t="n">
         <v>12.0</v>
@@ -17001,7 +17001,7 @@
         <v>3.0</v>
       </c>
       <c r="F389" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G389" t="n">
         <v>15.0</v>
@@ -17083,7 +17083,7 @@
         <v>3.0</v>
       </c>
       <c r="F391" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G391" t="n">
         <v>15.0</v>
@@ -17124,7 +17124,7 @@
         <v>6.0</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G392" t="n">
         <v>54.0</v>
@@ -17206,7 +17206,7 @@
         <v>3.0</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G394" t="n">
         <v>3.0</v>
@@ -17411,7 +17411,7 @@
         <v>6.0</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G399" t="n">
         <v>60.0</v>
@@ -17493,7 +17493,7 @@
         <v>6.0</v>
       </c>
       <c r="F401" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G401" t="n">
         <v>90.0</v>
@@ -17534,7 +17534,7 @@
         <v>57.0</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G402" t="n">
         <v>2088.0</v>
@@ -17616,7 +17616,7 @@
         <v>3.0</v>
       </c>
       <c r="F404" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G404" t="n">
         <v>15.0</v>
@@ -17698,7 +17698,7 @@
         <v>15.0</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G406" t="n">
         <v>2835.0</v>
@@ -17780,7 +17780,7 @@
         <v>9.0</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G408" t="n">
         <v>303.0</v>
@@ -17821,7 +17821,7 @@
         <v>18.0</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G409" t="n">
         <v>369.0</v>
@@ -17903,7 +17903,7 @@
         <v>9.0</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G411" t="n">
         <v>327.0</v>
@@ -17944,7 +17944,7 @@
         <v>9.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G412" t="n">
         <v>75.0</v>
@@ -17985,7 +17985,7 @@
         <v>3.0</v>
       </c>
       <c r="F413" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G413" t="n">
         <v>153.0</v>
@@ -18026,7 +18026,7 @@
         <v>27.0</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G414" t="n">
         <v>402.0</v>
@@ -18149,7 +18149,7 @@
         <v>24.0</v>
       </c>
       <c r="F417" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G417" t="n">
         <v>123.0</v>
@@ -18190,7 +18190,7 @@
         <v>21.0</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G418" t="n">
         <v>99.0</v>
@@ -18231,7 +18231,7 @@
         <v>3.0</v>
       </c>
       <c r="F419" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G419" t="n">
         <v>6.0</v>
@@ -18272,7 +18272,7 @@
         <v>3.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G420" t="n">
         <v>12.0</v>
@@ -18354,7 +18354,7 @@
         <v>27.0</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G422" t="n">
         <v>621.0</v>
@@ -18436,7 +18436,7 @@
         <v>3.0</v>
       </c>
       <c r="F424" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G424" t="n">
         <v>6.0</v>
@@ -18477,7 +18477,7 @@
         <v>3.0</v>
       </c>
       <c r="F425" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G425" t="n">
         <v>12.0</v>
@@ -18518,7 +18518,7 @@
         <v>3.0</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G426" t="n">
         <v>3.0</v>
@@ -18559,7 +18559,7 @@
         <v>9.0</v>
       </c>
       <c r="F427" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G427" t="n">
         <v>810.0</v>
@@ -18641,7 +18641,7 @@
         <v>3.0</v>
       </c>
       <c r="F429" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G429" t="n">
         <v>57.0</v>
@@ -18723,7 +18723,7 @@
         <v>6.0</v>
       </c>
       <c r="F431" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G431" t="n">
         <v>177.0</v>
@@ -18764,7 +18764,7 @@
         <v>3.0</v>
       </c>
       <c r="F432" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G432" t="n">
         <v>132.0</v>
@@ -18805,7 +18805,7 @@
         <v>3.0</v>
       </c>
       <c r="F433" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G433" t="n">
         <v>324.0</v>
@@ -18887,7 +18887,7 @@
         <v>12.0</v>
       </c>
       <c r="F435" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G435" t="n">
         <v>132.0</v>
@@ -18928,7 +18928,7 @@
         <v>9.0</v>
       </c>
       <c r="F436" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G436" t="n">
         <v>366.0</v>
@@ -18969,7 +18969,7 @@
         <v>33.0</v>
       </c>
       <c r="F437" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G437" t="n">
         <v>387.0</v>
@@ -19010,7 +19010,7 @@
         <v>39.0</v>
       </c>
       <c r="F438" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G438" t="n">
         <v>957.0</v>
@@ -19092,7 +19092,7 @@
         <v>3.0</v>
       </c>
       <c r="F440" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G440" t="n">
         <v>21.0</v>
@@ -19133,7 +19133,7 @@
         <v>6.0</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G441" t="n">
         <v>114.0</v>
@@ -19174,7 +19174,7 @@
         <v>12.0</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G442" t="n">
         <v>855.0</v>
@@ -19215,7 +19215,7 @@
         <v>12.0</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G443" t="n">
         <v>48.0</v>
@@ -19256,7 +19256,7 @@
         <v>9.0</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G444" t="n">
         <v>39.0</v>
@@ -19297,7 +19297,7 @@
         <v>3.0</v>
       </c>
       <c r="F445" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G445" t="n">
         <v>0.0</v>
@@ -19338,7 +19338,7 @@
         <v>15.0</v>
       </c>
       <c r="F446" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G446" t="n">
         <v>504.0</v>
@@ -19379,7 +19379,7 @@
         <v>12.0</v>
       </c>
       <c r="F447" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G447" t="n">
         <v>1551.0</v>
@@ -19420,7 +19420,7 @@
         <v>36.0</v>
       </c>
       <c r="F448" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G448" t="n">
         <v>1014.0</v>
@@ -19461,7 +19461,7 @@
         <v>27.0</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G449" t="n">
         <v>819.0</v>
@@ -19502,7 +19502,7 @@
         <v>9.0</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G450" t="n">
         <v>168.0</v>
@@ -19543,7 +19543,7 @@
         <v>6.0</v>
       </c>
       <c r="F451" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G451" t="n">
         <v>6.0</v>
@@ -19625,7 +19625,7 @@
         <v>15.0</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G453" t="n">
         <v>180.0</v>
@@ -19666,7 +19666,7 @@
         <v>36.0</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G454" t="n">
         <v>1314.0</v>
@@ -19707,7 +19707,7 @@
         <v>12.0</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G455" t="n">
         <v>39.0</v>
@@ -19748,7 +19748,7 @@
         <v>6.0</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G456" t="n">
         <v>93.0</v>
@@ -19789,7 +19789,7 @@
         <v>6.0</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G457" t="n">
         <v>108.0</v>
@@ -19871,7 +19871,7 @@
         <v>15.0</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G459" t="n">
         <v>381.0</v>
@@ -19912,7 +19912,7 @@
         <v>12.0</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G460" t="n">
         <v>222.0</v>
@@ -19953,7 +19953,7 @@
         <v>21.0</v>
       </c>
       <c r="F461" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G461" t="n">
         <v>534.0</v>
@@ -20035,7 +20035,7 @@
         <v>3.0</v>
       </c>
       <c r="F463" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G463" t="n">
         <v>9.0</v>
@@ -20076,7 +20076,7 @@
         <v>21.0</v>
       </c>
       <c r="F464" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G464" t="n">
         <v>609.0</v>
@@ -20117,7 +20117,7 @@
         <v>15.0</v>
       </c>
       <c r="F465" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G465" t="n">
         <v>147.0</v>
@@ -20158,7 +20158,7 @@
         <v>12.0</v>
       </c>
       <c r="F466" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G466" t="n">
         <v>291.0</v>
@@ -20199,7 +20199,7 @@
         <v>15.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G467" t="n">
         <v>384.0</v>
@@ -20240,7 +20240,7 @@
         <v>12.0</v>
       </c>
       <c r="F468" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G468" t="n">
         <v>294.0</v>
@@ -20281,7 +20281,7 @@
         <v>15.0</v>
       </c>
       <c r="F469" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G469" t="n">
         <v>234.0</v>
@@ -20322,7 +20322,7 @@
         <v>6.0</v>
       </c>
       <c r="F470" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G470" t="n">
         <v>405.0</v>
@@ -20363,7 +20363,7 @@
         <v>12.0</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G471" t="n">
         <v>708.0</v>
@@ -20404,7 +20404,7 @@
         <v>9.0</v>
       </c>
       <c r="F472" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G472" t="n">
         <v>327.0</v>
@@ -20445,7 +20445,7 @@
         <v>6.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G473" t="n">
         <v>2256.0</v>
@@ -20486,7 +20486,7 @@
         <v>39.0</v>
       </c>
       <c r="F474" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G474" t="n">
         <v>1881.0</v>
@@ -20527,7 +20527,7 @@
         <v>6.0</v>
       </c>
       <c r="F475" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G475" t="n">
         <v>216.0</v>
@@ -20568,7 +20568,7 @@
         <v>3.0</v>
       </c>
       <c r="F476" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G476" t="n">
         <v>27.0</v>
@@ -20609,7 +20609,7 @@
         <v>3.0</v>
       </c>
       <c r="F477" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G477" t="n">
         <v>12.0</v>
@@ -20650,7 +20650,7 @@
         <v>3.0</v>
       </c>
       <c r="F478" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G478" t="n">
         <v>78.0</v>
@@ -20691,7 +20691,7 @@
         <v>3.0</v>
       </c>
       <c r="F479" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G479" t="n">
         <v>237.0</v>
@@ -20732,7 +20732,7 @@
         <v>3.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G480" t="n">
         <v>75.0</v>
@@ -20773,7 +20773,7 @@
         <v>3.0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G481" t="n">
         <v>252.0</v>
@@ -20814,7 +20814,7 @@
         <v>3.0</v>
       </c>
       <c r="F482" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G482" t="n">
         <v>102.0</v>
@@ -20855,7 +20855,7 @@
         <v>3.0</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G483" t="n">
         <v>99.0</v>
@@ -20896,7 +20896,7 @@
         <v>3.0</v>
       </c>
       <c r="F484" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G484" t="n">
         <v>312.0</v>
@@ -20937,7 +20937,7 @@
         <v>3.0</v>
       </c>
       <c r="F485" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G485" t="n">
         <v>516.0</v>
@@ -20978,7 +20978,7 @@
         <v>3.0</v>
       </c>
       <c r="F486" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G486" t="n">
         <v>210.0</v>
@@ -21019,7 +21019,7 @@
         <v>3.0</v>
       </c>
       <c r="F487" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G487" t="n">
         <v>420.0</v>
@@ -21060,7 +21060,7 @@
         <v>3.0</v>
       </c>
       <c r="F488" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G488" t="n">
         <v>642.0</v>
@@ -21101,7 +21101,7 @@
         <v>3.0</v>
       </c>
       <c r="F489" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G489" t="n">
         <v>462.0</v>
@@ -21142,7 +21142,7 @@
         <v>6.0</v>
       </c>
       <c r="F490" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G490" t="n">
         <v>78.0</v>
@@ -21183,7 +21183,7 @@
         <v>6.0</v>
       </c>
       <c r="F491" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G491" t="n">
         <v>186.0</v>
@@ -21224,7 +21224,7 @@
         <v>3.0</v>
       </c>
       <c r="F492" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G492" t="n">
         <v>12.0</v>
@@ -21265,7 +21265,7 @@
         <v>39.0</v>
       </c>
       <c r="F493" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G493" t="n">
         <v>564.0</v>
@@ -21306,7 +21306,7 @@
         <v>3.0</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G494" t="n">
         <v>9.0</v>
@@ -21388,7 +21388,7 @@
         <v>3.0</v>
       </c>
       <c r="F496" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G496" t="n">
         <v>3.0</v>
@@ -21429,7 +21429,7 @@
         <v>21.0</v>
       </c>
       <c r="F497" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G497" t="n">
         <v>12342.0</v>
@@ -21470,7 +21470,7 @@
         <v>6.0</v>
       </c>
       <c r="F498" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G498" t="n">
         <v>99.0</v>
@@ -21511,7 +21511,7 @@
         <v>27.0</v>
       </c>
       <c r="F499" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G499" t="n">
         <v>360.0</v>
@@ -21552,7 +21552,7 @@
         <v>6.0</v>
       </c>
       <c r="F500" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G500" t="n">
         <v>24.0</v>
@@ -21593,7 +21593,7 @@
         <v>12.0</v>
       </c>
       <c r="F501" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G501" t="n">
         <v>1731.0</v>
@@ -21634,7 +21634,7 @@
         <v>18.0</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G502" t="n">
         <v>1245.0</v>
@@ -21675,7 +21675,7 @@
         <v>21.0</v>
       </c>
       <c r="F503" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G503" t="n">
         <v>903.0</v>
@@ -21716,7 +21716,7 @@
         <v>9.0</v>
       </c>
       <c r="F504" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G504" t="n">
         <v>426.0</v>
@@ -21757,7 +21757,7 @@
         <v>3.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G505" t="n">
         <v>168.0</v>
@@ -21798,7 +21798,7 @@
         <v>9.0</v>
       </c>
       <c r="F506" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G506" t="n">
         <v>243.0</v>
@@ -21839,7 +21839,7 @@
         <v>24.0</v>
       </c>
       <c r="F507" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G507" t="n">
         <v>1398.0</v>
@@ -22003,7 +22003,7 @@
         <v>6.0</v>
       </c>
       <c r="F511" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G511" t="n">
         <v>138.0</v>
@@ -22044,7 +22044,7 @@
         <v>6.0</v>
       </c>
       <c r="F512" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G512" t="n">
         <v>513.0</v>
@@ -22085,7 +22085,7 @@
         <v>3.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G513" t="n">
         <v>231.0</v>
@@ -22167,7 +22167,7 @@
         <v>3.0</v>
       </c>
       <c r="F515" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G515" t="n">
         <v>99.0</v>
@@ -22208,7 +22208,7 @@
         <v>15.0</v>
       </c>
       <c r="F516" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G516" t="n">
         <v>75.0</v>
@@ -22290,7 +22290,7 @@
         <v>6.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G518" t="n">
         <v>90.0</v>
@@ -22331,7 +22331,7 @@
         <v>6.0</v>
       </c>
       <c r="F519" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G519" t="n">
         <v>126.0</v>
@@ -22372,7 +22372,7 @@
         <v>6.0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G520" t="n">
         <v>456.0</v>
@@ -22454,7 +22454,7 @@
         <v>3.0</v>
       </c>
       <c r="F522" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G522" t="n">
         <v>6.0</v>
@@ -22495,7 +22495,7 @@
         <v>3.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G523" t="n">
         <v>141.0</v>
@@ -22536,7 +22536,7 @@
         <v>6.0</v>
       </c>
       <c r="F524" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G524" t="n">
         <v>192.0</v>
@@ -22577,7 +22577,7 @@
         <v>3.0</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G525" t="n">
         <v>129.0</v>
@@ -22618,7 +22618,7 @@
         <v>12.0</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G526" t="n">
         <v>546.0</v>
@@ -22659,7 +22659,7 @@
         <v>6.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G527" t="n">
         <v>189.0</v>
@@ -22700,7 +22700,7 @@
         <v>3.0</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G528" t="n">
         <v>135.0</v>
@@ -22741,7 +22741,7 @@
         <v>3.0</v>
       </c>
       <c r="F529" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G529" t="n">
         <v>282.0</v>
@@ -22864,7 +22864,7 @@
         <v>6.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G532" t="n">
         <v>84.0</v>
@@ -22905,7 +22905,7 @@
         <v>9.0</v>
       </c>
       <c r="F533" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G533" t="n">
         <v>189.0</v>
@@ -22946,7 +22946,7 @@
         <v>6.0</v>
       </c>
       <c r="F534" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G534" t="n">
         <v>24.0</v>
@@ -22987,7 +22987,7 @@
         <v>9.0</v>
       </c>
       <c r="F535" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G535" t="n">
         <v>24.0</v>
@@ -23028,7 +23028,7 @@
         <v>6.0</v>
       </c>
       <c r="F536" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G536" t="n">
         <v>30.0</v>
@@ -23151,7 +23151,7 @@
         <v>6.0</v>
       </c>
       <c r="F539" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G539" t="n">
         <v>36.0</v>
@@ -23192,7 +23192,7 @@
         <v>3.0</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G540" t="n">
         <v>30.0</v>
@@ -23233,7 +23233,7 @@
         <v>9.0</v>
       </c>
       <c r="F541" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G541" t="n">
         <v>105.0</v>
@@ -23397,7 +23397,7 @@
         <v>3.0</v>
       </c>
       <c r="F545" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G545" t="n">
         <v>102.0</v>
@@ -23438,7 +23438,7 @@
         <v>3.0</v>
       </c>
       <c r="F546" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G546" t="n">
         <v>102.0</v>
@@ -23561,7 +23561,7 @@
         <v>3.0</v>
       </c>
       <c r="F549" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G549" t="n">
         <v>468.0</v>
@@ -23602,7 +23602,7 @@
         <v>3.0</v>
       </c>
       <c r="F550" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G550" t="n">
         <v>252.0</v>
@@ -23643,7 +23643,7 @@
         <v>9.0</v>
       </c>
       <c r="F551" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G551" t="n">
         <v>225.0</v>
@@ -23684,7 +23684,7 @@
         <v>6.0</v>
       </c>
       <c r="F552" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G552" t="n">
         <v>54.0</v>
@@ -23725,7 +23725,7 @@
         <v>6.0</v>
       </c>
       <c r="F553" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G553" t="n">
         <v>39.0</v>
@@ -23766,7 +23766,7 @@
         <v>21.0</v>
       </c>
       <c r="F554" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G554" t="n">
         <v>489.0</v>
@@ -23807,7 +23807,7 @@
         <v>6.0</v>
       </c>
       <c r="F555" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G555" t="n">
         <v>78.0</v>
@@ -23889,7 +23889,7 @@
         <v>6.0</v>
       </c>
       <c r="F557" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G557" t="n">
         <v>549.0</v>
@@ -23930,7 +23930,7 @@
         <v>6.0</v>
       </c>
       <c r="F558" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G558" t="n">
         <v>213.0</v>
@@ -23971,7 +23971,7 @@
         <v>3.0</v>
       </c>
       <c r="F559" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G559" t="n">
         <v>162.0</v>
@@ -24012,7 +24012,7 @@
         <v>3.0</v>
       </c>
       <c r="F560" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G560" t="n">
         <v>480.0</v>
@@ -24053,7 +24053,7 @@
         <v>30.0</v>
       </c>
       <c r="F561" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G561" t="n">
         <v>324.0</v>
@@ -24094,7 +24094,7 @@
         <v>21.0</v>
       </c>
       <c r="F562" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G562" t="n">
         <v>366.0</v>
@@ -24135,7 +24135,7 @@
         <v>30.0</v>
       </c>
       <c r="F563" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G563" t="n">
         <v>828.0</v>
@@ -24176,7 +24176,7 @@
         <v>6.0</v>
       </c>
       <c r="F564" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G564" t="n">
         <v>1872.0</v>
@@ -24217,7 +24217,7 @@
         <v>9.0</v>
       </c>
       <c r="F565" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G565" t="n">
         <v>1206.0</v>
@@ -24258,7 +24258,7 @@
         <v>6.0</v>
       </c>
       <c r="F566" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G566" t="n">
         <v>1152.0</v>
@@ -24299,7 +24299,7 @@
         <v>3.0</v>
       </c>
       <c r="F567" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G567" t="n">
         <v>72.0</v>
@@ -24340,7 +24340,7 @@
         <v>3.0</v>
       </c>
       <c r="F568" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G568" t="n">
         <v>276.0</v>
@@ -24381,7 +24381,7 @@
         <v>6.0</v>
       </c>
       <c r="F569" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G569" t="n">
         <v>852.0</v>
@@ -24422,7 +24422,7 @@
         <v>3.0</v>
       </c>
       <c r="F570" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G570" t="n">
         <v>1113.0</v>
@@ -24463,7 +24463,7 @@
         <v>9.0</v>
       </c>
       <c r="F571" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G571" t="n">
         <v>957.0</v>
@@ -24504,7 +24504,7 @@
         <v>9.0</v>
       </c>
       <c r="F572" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G572" t="n">
         <v>1959.0</v>
@@ -24545,7 +24545,7 @@
         <v>3.0</v>
       </c>
       <c r="F573" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G573" t="n">
         <v>147.0</v>
@@ -24586,7 +24586,7 @@
         <v>3.0</v>
       </c>
       <c r="F574" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G574" t="n">
         <v>141.0</v>
@@ -24627,7 +24627,7 @@
         <v>6.0</v>
       </c>
       <c r="F575" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G575" t="n">
         <v>39.0</v>
@@ -24668,7 +24668,7 @@
         <v>12.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G576" t="n">
         <v>1092.0</v>
@@ -24709,7 +24709,7 @@
         <v>15.0</v>
       </c>
       <c r="F577" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G577" t="n">
         <v>2322.0</v>
@@ -24750,7 +24750,7 @@
         <v>6.0</v>
       </c>
       <c r="F578" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G578" t="n">
         <v>147.0</v>
@@ -24791,7 +24791,7 @@
         <v>3.0</v>
       </c>
       <c r="F579" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G579" t="n">
         <v>51.0</v>
@@ -24832,7 +24832,7 @@
         <v>12.0</v>
       </c>
       <c r="F580" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G580" t="n">
         <v>666.0</v>
@@ -24873,7 +24873,7 @@
         <v>3.0</v>
       </c>
       <c r="F581" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G581" t="n">
         <v>267.0</v>
@@ -24914,7 +24914,7 @@
         <v>3.0</v>
       </c>
       <c r="F582" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G582" t="n">
         <v>150.0</v>
@@ -24955,7 +24955,7 @@
         <v>6.0</v>
       </c>
       <c r="F583" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G583" t="n">
         <v>126.0</v>
@@ -25119,7 +25119,7 @@
         <v>3.0</v>
       </c>
       <c r="F587" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G587" t="n">
         <v>72.0</v>
@@ -25160,7 +25160,7 @@
         <v>3.0</v>
       </c>
       <c r="F588" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G588" t="n">
         <v>9.0</v>
@@ -25201,7 +25201,7 @@
         <v>6.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G589" t="n">
         <v>243.0</v>
@@ -25242,7 +25242,7 @@
         <v>3.0</v>
       </c>
       <c r="F590" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G590" t="n">
         <v>141.0</v>
@@ -25652,7 +25652,7 @@
         <v>3.0</v>
       </c>
       <c r="F600" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G600" t="n">
         <v>132.0</v>
@@ -25693,7 +25693,7 @@
         <v>3.0</v>
       </c>
       <c r="F601" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G601" t="n">
         <v>78.0</v>
@@ -25734,7 +25734,7 @@
         <v>18.0</v>
       </c>
       <c r="F602" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G602" t="n">
         <v>315.0</v>
@@ -25775,7 +25775,7 @@
         <v>42.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G603" t="n">
         <v>37899.0</v>
@@ -25816,7 +25816,7 @@
         <v>3.0</v>
       </c>
       <c r="F604" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G604" t="n">
         <v>222.0</v>
@@ -25898,7 +25898,7 @@
         <v>9.0</v>
       </c>
       <c r="F606" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G606" t="n">
         <v>78.0</v>
@@ -25939,7 +25939,7 @@
         <v>3.0</v>
       </c>
       <c r="F607" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G607" t="n">
         <v>177.0</v>
@@ -25980,7 +25980,7 @@
         <v>3.0</v>
       </c>
       <c r="F608" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G608" t="n">
         <v>36.0</v>
@@ -26021,7 +26021,7 @@
         <v>24.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G609" t="n">
         <v>462.0</v>
@@ -26062,7 +26062,7 @@
         <v>3.0</v>
       </c>
       <c r="F610" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G610" t="n">
         <v>33.0</v>
@@ -26103,7 +26103,7 @@
         <v>6.0</v>
       </c>
       <c r="F611" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G611" t="n">
         <v>69.0</v>
@@ -26144,7 +26144,7 @@
         <v>18.0</v>
       </c>
       <c r="F612" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G612" t="n">
         <v>996.0</v>
@@ -26185,7 +26185,7 @@
         <v>3.0</v>
       </c>
       <c r="F613" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G613" t="n">
         <v>369.0</v>
@@ -26226,7 +26226,7 @@
         <v>6.0</v>
       </c>
       <c r="F614" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G614" t="n">
         <v>24.0</v>
@@ -26267,7 +26267,7 @@
         <v>6.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G615" t="n">
         <v>12.0</v>
@@ -26308,7 +26308,7 @@
         <v>6.0</v>
       </c>
       <c r="F616" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G616" t="n">
         <v>12.0</v>
@@ -26390,7 +26390,7 @@
         <v>3.0</v>
       </c>
       <c r="F618" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G618" t="n">
         <v>6.0</v>
@@ -26431,7 +26431,7 @@
         <v>36.0</v>
       </c>
       <c r="F619" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G619" t="n">
         <v>948.0</v>
@@ -26595,7 +26595,7 @@
         <v>3.0</v>
       </c>
       <c r="F623" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G623" t="n">
         <v>15.0</v>
@@ -26718,7 +26718,7 @@
         <v>15.0</v>
       </c>
       <c r="F626" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G626" t="n">
         <v>192.0</v>
@@ -26759,7 +26759,7 @@
         <v>45.0</v>
       </c>
       <c r="F627" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G627" t="n">
         <v>1440.0</v>
@@ -26882,7 +26882,7 @@
         <v>3.0</v>
       </c>
       <c r="F630" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G630" t="n">
         <v>315.0</v>
@@ -27005,7 +27005,7 @@
         <v>3.0</v>
       </c>
       <c r="F633" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G633" t="n">
         <v>15.0</v>
@@ -27087,7 +27087,7 @@
         <v>9.0</v>
       </c>
       <c r="F635" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G635" t="n">
         <v>63.0</v>
@@ -27128,7 +27128,7 @@
         <v>27.0</v>
       </c>
       <c r="F636" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G636" t="n">
         <v>582.0</v>
@@ -27169,7 +27169,7 @@
         <v>9.0</v>
       </c>
       <c r="F637" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G637" t="n">
         <v>699.0</v>
@@ -27210,7 +27210,7 @@
         <v>9.0</v>
       </c>
       <c r="F638" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G638" t="n">
         <v>111.0</v>
@@ -27374,7 +27374,7 @@
         <v>6.0</v>
       </c>
       <c r="F642" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G642" t="n">
         <v>498.0</v>
@@ -27415,7 +27415,7 @@
         <v>12.0</v>
       </c>
       <c r="F643" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G643" t="n">
         <v>723.0</v>
@@ -27456,7 +27456,7 @@
         <v>3.0</v>
       </c>
       <c r="F644" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G644" t="n">
         <v>2598.0</v>
@@ -27497,7 +27497,7 @@
         <v>9.0</v>
       </c>
       <c r="F645" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G645" t="n">
         <v>570.0</v>
@@ -27538,7 +27538,7 @@
         <v>6.0</v>
       </c>
       <c r="F646" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G646" t="n">
         <v>312.0</v>
@@ -27579,7 +27579,7 @@
         <v>6.0</v>
       </c>
       <c r="F647" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G647" t="n">
         <v>300.0</v>
@@ -27620,7 +27620,7 @@
         <v>21.0</v>
       </c>
       <c r="F648" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G648" t="n">
         <v>2679.0</v>
@@ -27661,7 +27661,7 @@
         <v>27.0</v>
       </c>
       <c r="F649" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G649" t="n">
         <v>381.0</v>
@@ -27702,7 +27702,7 @@
         <v>3.0</v>
       </c>
       <c r="F650" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G650" t="n">
         <v>21.0</v>
@@ -27825,7 +27825,7 @@
         <v>6.0</v>
       </c>
       <c r="F653" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G653" t="n">
         <v>66.0</v>
@@ -27866,7 +27866,7 @@
         <v>6.0</v>
       </c>
       <c r="F654" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G654" t="n">
         <v>30.0</v>
@@ -27907,7 +27907,7 @@
         <v>33.0</v>
       </c>
       <c r="F655" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G655" t="n">
         <v>2085.0</v>
@@ -27989,7 +27989,7 @@
         <v>6.0</v>
       </c>
       <c r="F657" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G657" t="n">
         <v>57.0</v>
@@ -28030,7 +28030,7 @@
         <v>3.0</v>
       </c>
       <c r="F658" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G658" t="n">
         <v>81.0</v>
@@ -28112,7 +28112,7 @@
         <v>9.0</v>
       </c>
       <c r="F660" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G660" t="n">
         <v>33.0</v>
@@ -28194,7 +28194,7 @@
         <v>3.0</v>
       </c>
       <c r="F662" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G662" t="n">
         <v>15.0</v>
@@ -28276,7 +28276,7 @@
         <v>3.0</v>
       </c>
       <c r="F664" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G664" t="n">
         <v>12.0</v>
@@ -28358,7 +28358,7 @@
         <v>24.0</v>
       </c>
       <c r="F666" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G666" t="n">
         <v>903.0</v>
@@ -28399,7 +28399,7 @@
         <v>6.0</v>
       </c>
       <c r="F667" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G667" t="n">
         <v>6.0</v>
@@ -28522,7 +28522,7 @@
         <v>3.0</v>
       </c>
       <c r="F670" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G670" t="n">
         <v>51.0</v>
@@ -28604,7 +28604,7 @@
         <v>3.0</v>
       </c>
       <c r="F672" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G672" t="n">
         <v>27.0</v>
@@ -28645,7 +28645,7 @@
         <v>6.0</v>
       </c>
       <c r="F673" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G673" t="n">
         <v>21.0</v>
@@ -28686,7 +28686,7 @@
         <v>3.0</v>
       </c>
       <c r="F674" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G674" t="n">
         <v>210.0</v>
@@ -29055,7 +29055,7 @@
         <v>3.0</v>
       </c>
       <c r="F683" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G683" t="n">
         <v>60.0</v>
@@ -29137,7 +29137,7 @@
         <v>6.0</v>
       </c>
       <c r="F685" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G685" t="n">
         <v>66.0</v>
@@ -29219,7 +29219,7 @@
         <v>30.0</v>
       </c>
       <c r="F687" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G687" t="n">
         <v>939.0</v>
@@ -29260,7 +29260,7 @@
         <v>6.0</v>
       </c>
       <c r="F688" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G688" t="n">
         <v>132.0</v>
@@ -29301,7 +29301,7 @@
         <v>15.0</v>
       </c>
       <c r="F689" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G689" t="n">
         <v>192.0</v>
@@ -29342,7 +29342,7 @@
         <v>18.0</v>
       </c>
       <c r="F690" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G690" t="n">
         <v>387.0</v>
@@ -29383,7 +29383,7 @@
         <v>12.0</v>
       </c>
       <c r="F691" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G691" t="n">
         <v>483.0</v>
@@ -29465,7 +29465,7 @@
         <v>6.0</v>
       </c>
       <c r="F693" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G693" t="n">
         <v>54.0</v>
@@ -29506,7 +29506,7 @@
         <v>3.0</v>
       </c>
       <c r="F694" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G694" t="n">
         <v>12.0</v>
@@ -29547,7 +29547,7 @@
         <v>3.0</v>
       </c>
       <c r="F695" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G695" t="n">
         <v>486.0</v>
@@ -29588,7 +29588,7 @@
         <v>6.0</v>
       </c>
       <c r="F696" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G696" t="n">
         <v>393.0</v>
@@ -29629,7 +29629,7 @@
         <v>3.0</v>
       </c>
       <c r="F697" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G697" t="n">
         <v>324.0</v>
@@ -29670,7 +29670,7 @@
         <v>6.0</v>
       </c>
       <c r="F698" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G698" t="n">
         <v>1062.0</v>
@@ -29834,7 +29834,7 @@
         <v>6.0</v>
       </c>
       <c r="F702" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G702" t="n">
         <v>936.0</v>
@@ -29875,7 +29875,7 @@
         <v>3.0</v>
       </c>
       <c r="F703" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G703" t="n">
         <v>231.0</v>
@@ -30039,7 +30039,7 @@
         <v>3.0</v>
       </c>
       <c r="F707" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G707" t="n">
         <v>114.0</v>
